--- a/biology/Botanique/Bosquet_de_l'Encelade/Bosquet_de_l'Encelade.xlsx
+++ b/biology/Botanique/Bosquet_de_l'Encelade/Bosquet_de_l'Encelade.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bosquet_de_l%27Encelade</t>
+          <t>Bosquet_de_l'Encelade</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le bosquet de l'Encelade est un bosquet de Versailles.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bosquet_de_l%27Encelade</t>
+          <t>Bosquet_de_l'Encelade</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bosquet de l'Encelade est situé dans le jardin de Versailles, entre le bassin de Flore et le bassin d'Apollon. Il est délimité au Nord par l'allée de Cérès-et-de-Flore et à l'Ouest par celle d'Apollon.
 Il est contigu au bosquet des Dômes et au bosquet de l'Obélisque.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bosquet_de_l%27Encelade</t>
+          <t>Bosquet_de_l'Encelade</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été créé en 1675 par Louis XIV et mis en œuvre par André Le Nôtre entre 1675 et 1678.
 En 1678, un anneau octogonal en gazon et huit fontaines en rocaille furent installées autour de la fontaine centrale. Ces additions, ainsi que les marches reliant les huit fontaines en octogonal et surtout la galerie de treillage entourant le bosquet furent supprimées en 1706. La fontaine, avec le jet d'eau le plus haut de toutes les fontaines à Versailles 78 pieds (25,74 mètres), fut conçue comme une allégorie qui faisait allusion à la victoire de Louis XIV sur la Fronde. Une autre analyse, propose que la légende de la révolte des géants, suivie de leur écrasement par les dieux est utilisée par l'artiste pour symboliser la chute de Fouquet, surintendant de Louis XIV qui espérait régner comme Mazarin à la mort de celui-ci mais qui est écarté et, de fait, humilié par le roi.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bosquet_de_l%27Encelade</t>
+          <t>Bosquet_de_l'Encelade</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bosquet est triangulaire, en son centre se trouve le bassin de l'Encelade, un bassin rond d'où surgit une statue de Gaspard Marsy en plomb doré qui représente Encelade, le chef de la révolte des géants, écrasé sous les rochers et se transformant en l'Etna. 
 Berthier a fait les rocailles du bassin central imitant la lave du volcan. Tout autour, un octogone de pelouse est bordé par huit fontaines en pierre rocailleuse depuis 1678, de topiaires en formes d'amphores et de fleurs.
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bosquet_de_l%27Encelade</t>
+          <t>Bosquet_de_l'Encelade</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,10 +632,12 @@
           <t>Visite en suivant les pas de Louis XIV</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le roi a rédigé plusieurs guides de visite des jardins de Versailles. Le dernier date des années 1702-1704 et on en possède l'original écrit de sa main :
-On passera par Lancellade où on ne fera qu'un demy-tour[1].</t>
+On passera par Lancellade où on ne fera qu'un demy-tour.</t>
         </is>
       </c>
     </row>
